--- a/Class Demo Files/Excel Ch2b/Gradesdemo.xlsx
+++ b/Class Demo Files/Excel Ch2b/Gradesdemo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Class Demo Files\Excel Ch2b\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="11340" windowHeight="6795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="4" r:id="rId1"/>
@@ -13,7 +18,10 @@
     <sheet name="Section 3" sheetId="3" r:id="rId4"/>
     <sheet name="Grades" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="Grades">'Section 1'!$J$4:$L$13</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -233,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -386,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -409,16 +417,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -427,11 +428,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +449,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,9 +766,9 @@
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <f ca="1">TODAY()</f>
-        <v>40808</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,7 +791,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="F4" sqref="F4:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -794,24 +804,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -855,14 +865,17 @@
         <f>AVERAGE(B4:D4)</f>
         <v>94</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="J4" s="21">
+      <c r="F4" s="14" t="str">
+        <f>VLOOKUP(E4,Grades,2)</f>
+        <v>A+</v>
+      </c>
+      <c r="J4" s="17">
         <v>0</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <v>0</v>
       </c>
     </row>
@@ -883,14 +896,17 @@
         <f t="shared" ref="E5:E19" si="0">AVERAGE(B5:D5)</f>
         <v>92.666666666666671</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="J5" s="21">
+      <c r="F5" s="14" t="str">
+        <f>VLOOKUP(E5,Grades,2)</f>
+        <v>A+</v>
+      </c>
+      <c r="J5" s="17">
         <v>50</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="16">
         <v>1</v>
       </c>
     </row>
@@ -911,14 +927,17 @@
         <f t="shared" si="0"/>
         <v>52.333333333333336</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="J6" s="21">
+      <c r="F6" s="14" t="str">
+        <f>VLOOKUP(E6,Grades,2)</f>
+        <v>D</v>
+      </c>
+      <c r="J6" s="17">
         <v>60</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="16">
         <v>2</v>
       </c>
     </row>
@@ -939,14 +958,17 @@
         <f t="shared" si="0"/>
         <v>90.333333333333329</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="J7" s="21">
+      <c r="F7" s="14" t="str">
+        <f>VLOOKUP(E7,Grades,2)</f>
+        <v>A+</v>
+      </c>
+      <c r="J7" s="17">
         <v>65</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="16">
         <v>3</v>
       </c>
     </row>
@@ -967,14 +989,17 @@
         <f t="shared" si="0"/>
         <v>65.666666666666671</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="J8" s="21">
+      <c r="F8" s="14" t="str">
+        <f>VLOOKUP(E8,Grades,2)</f>
+        <v>C+</v>
+      </c>
+      <c r="J8" s="17">
         <v>70</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="16">
         <v>4</v>
       </c>
     </row>
@@ -995,14 +1020,17 @@
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="J9" s="21">
+      <c r="F9" s="14" t="str">
+        <f>VLOOKUP(E9,Grades,2)</f>
+        <v>C+</v>
+      </c>
+      <c r="J9" s="17">
         <v>73</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="16">
         <v>5</v>
       </c>
     </row>
@@ -1023,14 +1051,17 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="J10" s="21">
+      <c r="F10" s="14" t="str">
+        <f>VLOOKUP(E10,Grades,2)</f>
+        <v>D</v>
+      </c>
+      <c r="J10" s="17">
         <v>77</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="16">
         <v>6</v>
       </c>
     </row>
@@ -1051,14 +1082,17 @@
         <f t="shared" si="0"/>
         <v>73.666666666666671</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="J11" s="21">
+      <c r="F11" s="14" t="str">
+        <f>VLOOKUP(E11,Grades,2)</f>
+        <v>B</v>
+      </c>
+      <c r="J11" s="17">
         <v>80</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>7</v>
       </c>
     </row>
@@ -1079,14 +1113,17 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="J12" s="21">
+      <c r="F12" s="14" t="str">
+        <f>VLOOKUP(E12,Grades,2)</f>
+        <v>C+</v>
+      </c>
+      <c r="J12" s="17">
         <v>85</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="16">
         <v>8</v>
       </c>
     </row>
@@ -1107,14 +1144,17 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="J13" s="21">
+      <c r="F13" s="14" t="str">
+        <f>VLOOKUP(E13,Grades,2)</f>
+        <v>A-</v>
+      </c>
+      <c r="J13" s="17">
         <v>90</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>9</v>
       </c>
     </row>
@@ -1135,7 +1175,10 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="14" t="str">
+        <f>VLOOKUP(E14,Grades,2)</f>
+        <v>C+</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1154,7 +1197,10 @@
         <f t="shared" si="0"/>
         <v>91.333333333333329</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="14" t="str">
+        <f>VLOOKUP(E15,Grades,2)</f>
+        <v>A+</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1173,7 +1219,10 @@
         <f t="shared" si="0"/>
         <v>90.333333333333329</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="14" t="str">
+        <f>VLOOKUP(E16,Grades,2)</f>
+        <v>A+</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -1192,7 +1241,10 @@
         <f t="shared" si="0"/>
         <v>88.666666666666671</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="14" t="str">
+        <f>VLOOKUP(E17,Grades,2)</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -1211,27 +1263,33 @@
         <f t="shared" si="0"/>
         <v>92.666666666666671</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="14" t="str">
+        <f>VLOOKUP(E18,Grades,2)</f>
+        <v>A+</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f>AVERAGE(B4:B18)</f>
         <v>86.066666666666663</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <f>AVERAGE(C4:C18)</f>
         <v>75.666666666666671</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f>AVERAGE(D4:D18)</f>
         <v>71.13333333333334</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>77.62222222222222</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="14" t="str">
+        <f>VLOOKUP(E19,Grades,2)</f>
+        <v>B+</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1254,7 +1312,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F4" sqref="F4:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1266,24 +1324,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1322,7 +1380,10 @@
         <f>AVERAGE(B4:D4)</f>
         <v>85.666666666666671</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="str">
+        <f>VLOOKUP(E4,Grades,2)</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1341,7 +1402,10 @@
         <f t="shared" ref="E5:E19" si="0">AVERAGE(B5:D5)</f>
         <v>95</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="str">
+        <f>VLOOKUP(E5,Grades,2)</f>
+        <v>A+</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1360,7 +1424,10 @@
         <f t="shared" si="0"/>
         <v>58.666666666666664</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="str">
+        <f>VLOOKUP(E6,Grades,2)</f>
+        <v>D</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1379,7 +1446,10 @@
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="str">
+        <f>VLOOKUP(E7,Grades,2)</f>
+        <v>A+</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1398,7 +1468,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="str">
+        <f>VLOOKUP(E8,Grades,2)</f>
+        <v>A+</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1417,7 +1490,10 @@
         <f t="shared" si="0"/>
         <v>61.666666666666664</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="str">
+        <f>VLOOKUP(E9,Grades,2)</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -1436,7 +1512,10 @@
         <f t="shared" si="0"/>
         <v>73.666666666666671</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f>VLOOKUP(E10,Grades,2)</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -1455,7 +1534,10 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="str">
+        <f>VLOOKUP(E11,Grades,2)</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -1474,7 +1556,10 @@
         <f t="shared" si="0"/>
         <v>81.666666666666671</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="str">
+        <f>VLOOKUP(E12,Grades,2)</f>
+        <v>A-</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -1493,7 +1578,10 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="str">
+        <f>VLOOKUP(E13,Grades,2)</f>
+        <v>D</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -1512,7 +1600,10 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="str">
+        <f>VLOOKUP(E14,Grades,2)</f>
+        <v>D</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1531,7 +1622,10 @@
         <f t="shared" si="0"/>
         <v>74.666666666666671</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="str">
+        <f>VLOOKUP(E15,Grades,2)</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1550,7 +1644,10 @@
         <f t="shared" si="0"/>
         <v>55.333333333333336</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="str">
+        <f>VLOOKUP(E16,Grades,2)</f>
+        <v>D</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -1569,7 +1666,10 @@
         <f t="shared" si="0"/>
         <v>88.333333333333329</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="str">
+        <f>VLOOKUP(E17,Grades,2)</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -1588,27 +1688,33 @@
         <f t="shared" si="0"/>
         <v>86.333333333333329</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="str">
+        <f>VLOOKUP(E18,Grades,2)</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f>AVERAGE(B4:B18)</f>
         <v>83.533333333333331</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <f>AVERAGE(C4:C18)</f>
         <v>72.933333333333337</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f>AVERAGE(D4:D18)</f>
         <v>70.266666666666666</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>75.577777777777783</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="5" t="str">
+        <f>VLOOKUP(E19,Grades,2)</f>
+        <v>B</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1630,7 +1736,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F4" sqref="F4:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1642,24 +1748,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1698,7 +1804,10 @@
         <f>AVERAGE(B4:D4)</f>
         <v>60.666666666666664</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="str">
+        <f>VLOOKUP(E4,Grades,2)</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1717,7 +1826,10 @@
         <f t="shared" ref="E5:E19" si="0">AVERAGE(B5:D5)</f>
         <v>85.666666666666671</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="str">
+        <f>VLOOKUP(E5,Grades,2)</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1736,7 +1848,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="str">
+        <f>VLOOKUP(E6,Grades,2)</f>
+        <v>A+</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1755,7 +1870,10 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="str">
+        <f>VLOOKUP(E7,Grades,2)</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1774,7 +1892,10 @@
         <f t="shared" si="0"/>
         <v>62.333333333333336</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="str">
+        <f>VLOOKUP(E8,Grades,2)</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1793,7 +1914,10 @@
         <f t="shared" si="0"/>
         <v>73.666666666666671</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="str">
+        <f>VLOOKUP(E9,Grades,2)</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -1812,7 +1936,10 @@
         <f t="shared" si="0"/>
         <v>88.333333333333329</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f>VLOOKUP(E10,Grades,2)</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -1831,7 +1958,10 @@
         <f t="shared" si="0"/>
         <v>90.666666666666671</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="str">
+        <f>VLOOKUP(E11,Grades,2)</f>
+        <v>A+</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -1850,7 +1980,10 @@
         <f t="shared" si="0"/>
         <v>58.333333333333336</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="str">
+        <f>VLOOKUP(E12,Grades,2)</f>
+        <v>D</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -1869,7 +2002,10 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="str">
+        <f>VLOOKUP(E13,Grades,2)</f>
+        <v>D</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -1888,7 +2024,10 @@
         <f t="shared" si="0"/>
         <v>71.666666666666671</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="str">
+        <f>VLOOKUP(E14,Grades,2)</f>
+        <v>B-</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1907,7 +2046,10 @@
         <f t="shared" si="0"/>
         <v>88.666666666666671</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="str">
+        <f>VLOOKUP(E15,Grades,2)</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1926,7 +2068,10 @@
         <f t="shared" si="0"/>
         <v>89.333333333333329</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="str">
+        <f>VLOOKUP(E16,Grades,2)</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -1945,7 +2090,10 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="str">
+        <f>VLOOKUP(E17,Grades,2)</f>
+        <v>A-</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -1964,27 +2112,33 @@
         <f t="shared" si="0"/>
         <v>71.666666666666671</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="str">
+        <f>VLOOKUP(E18,Grades,2)</f>
+        <v>B-</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f>AVERAGE(B4:B18)</f>
         <v>84.333333333333329</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <f>AVERAGE(C4:C18)</f>
         <v>72.666666666666671</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f>AVERAGE(D4:D18)</f>
         <v>69.8</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>75.600000000000009</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="5" t="str">
+        <f>VLOOKUP(E19,Grades,2)</f>
+        <v>B</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2012,112 +2166,112 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21">
+      <c r="A1" s="17">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="17">
         <v>50</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="17">
         <v>60</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="17">
         <v>65</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="17">
         <v>70</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <v>73</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="17">
         <v>77</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="17">
         <v>80</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="17">
         <v>85</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="17">
         <v>90</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>9</v>
       </c>
     </row>

--- a/Class Demo Files/Excel Ch2b/Gradesdemo.xlsx
+++ b/Class Demo Files/Excel Ch2b/Gradesdemo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>Exam 1</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>GRADES</t>
+  </si>
+  <si>
+    <t>GPA</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -390,11 +393,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -440,6 +469,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -842,6 +874,9 @@
       <c r="F3" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="J3" s="20" t="s">
         <v>69</v>
       </c>
@@ -866,8 +901,12 @@
         <v>94</v>
       </c>
       <c r="F4" s="14" t="str">
-        <f>VLOOKUP(E4,Grades,2)</f>
+        <f t="shared" ref="F4:G19" si="0">VLOOKUP(E4,Grades,2)</f>
         <v>A+</v>
+      </c>
+      <c r="G4" s="14">
+        <f>VLOOKUP(E4,Grades,3)</f>
+        <v>9</v>
       </c>
       <c r="J4" s="17">
         <v>0</v>
@@ -893,12 +932,16 @@
         <v>89</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E19" si="0">AVERAGE(B5:D5)</f>
+        <f t="shared" ref="E5:E19" si="1">AVERAGE(B5:D5)</f>
         <v>92.666666666666671</v>
       </c>
       <c r="F5" s="14" t="str">
-        <f>VLOOKUP(E5,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
+      </c>
+      <c r="G5" s="14">
+        <f>VLOOKUP(E5,Grades,3)</f>
+        <v>9</v>
       </c>
       <c r="J5" s="17">
         <v>50</v>
@@ -924,12 +967,16 @@
         <v>43</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.333333333333336</v>
       </c>
       <c r="F6" s="14" t="str">
-        <f>VLOOKUP(E6,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
+      </c>
+      <c r="G6" s="14">
+        <f>VLOOKUP(E6,Grades,3)</f>
+        <v>1</v>
       </c>
       <c r="J6" s="17">
         <v>60</v>
@@ -955,12 +1002,16 @@
         <v>81</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.333333333333329</v>
       </c>
       <c r="F7" s="14" t="str">
-        <f>VLOOKUP(E7,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
+      </c>
+      <c r="G7" s="14">
+        <f>VLOOKUP(E7,Grades,3)</f>
+        <v>9</v>
       </c>
       <c r="J7" s="17">
         <v>65</v>
@@ -986,12 +1037,16 @@
         <v>58</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.666666666666671</v>
       </c>
       <c r="F8" s="14" t="str">
-        <f>VLOOKUP(E8,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>C+</v>
+      </c>
+      <c r="G8" s="14">
+        <f>VLOOKUP(E8,Grades,3)</f>
+        <v>3</v>
       </c>
       <c r="J8" s="17">
         <v>70</v>
@@ -1017,12 +1072,16 @@
         <v>63</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="F9" s="14" t="str">
-        <f>VLOOKUP(E9,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>C+</v>
+      </c>
+      <c r="G9" s="14">
+        <f>VLOOKUP(E9,Grades,3)</f>
+        <v>3</v>
       </c>
       <c r="J9" s="17">
         <v>73</v>
@@ -1048,12 +1107,16 @@
         <v>43</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="F10" s="14" t="str">
-        <f>VLOOKUP(E10,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
+      </c>
+      <c r="G10" s="14">
+        <f>VLOOKUP(E10,Grades,3)</f>
+        <v>1</v>
       </c>
       <c r="J10" s="17">
         <v>77</v>
@@ -1079,12 +1142,16 @@
         <v>65</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.666666666666671</v>
       </c>
       <c r="F11" s="14" t="str">
-        <f>VLOOKUP(E11,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B</v>
+      </c>
+      <c r="G11" s="14">
+        <f>VLOOKUP(E11,Grades,3)</f>
+        <v>5</v>
       </c>
       <c r="J11" s="17">
         <v>80</v>
@@ -1110,12 +1177,16 @@
         <v>58</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f>VLOOKUP(E12,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>C+</v>
+      </c>
+      <c r="G12" s="14">
+        <f>VLOOKUP(E12,Grades,3)</f>
+        <v>3</v>
       </c>
       <c r="J12" s="17">
         <v>85</v>
@@ -1141,12 +1212,16 @@
         <v>77</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="F13" s="14" t="str">
-        <f>VLOOKUP(E13,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A-</v>
+      </c>
+      <c r="G13" s="14">
+        <f>VLOOKUP(E13,Grades,3)</f>
+        <v>7</v>
       </c>
       <c r="J13" s="17">
         <v>90</v>
@@ -1172,12 +1247,16 @@
         <v>62</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="F14" s="14" t="str">
-        <f>VLOOKUP(E14,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>C+</v>
+      </c>
+      <c r="G14" s="14">
+        <f>VLOOKUP(E14,Grades,3)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1194,12 +1273,16 @@
         <v>85</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.333333333333329</v>
       </c>
       <c r="F15" s="14" t="str">
-        <f>VLOOKUP(E15,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
+      </c>
+      <c r="G15" s="14">
+        <f>VLOOKUP(E15,Grades,3)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1216,15 +1299,19 @@
         <v>84</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.333333333333329</v>
       </c>
       <c r="F16" s="14" t="str">
-        <f>VLOOKUP(E16,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="14">
+        <f>VLOOKUP(E16,Grades,3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1238,15 +1325,19 @@
         <v>84</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.666666666666671</v>
       </c>
       <c r="F17" s="14" t="str">
-        <f>VLOOKUP(E17,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="14">
+        <f>VLOOKUP(E17,Grades,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1260,15 +1351,19 @@
         <v>86</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.666666666666671</v>
       </c>
       <c r="F18" s="14" t="str">
-        <f>VLOOKUP(E18,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="14">
+        <f>VLOOKUP(E18,Grades,3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12">
         <f>AVERAGE(B4:B18)</f>
@@ -1283,12 +1378,16 @@
         <v>71.13333333333334</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.62222222222222</v>
       </c>
       <c r="F19" s="14" t="str">
-        <f>VLOOKUP(E19,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B+</v>
+      </c>
+      <c r="G19" s="14">
+        <f>VLOOKUP(E19,Grades,3)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1309,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1323,7 +1422,7 @@
     <col min="6" max="6" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
@@ -1333,7 +1432,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>56</v>
       </c>
@@ -1343,7 +1442,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1362,8 +1461,11 @@
       <c r="F3" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1381,11 +1483,15 @@
         <v>85.666666666666671</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>VLOOKUP(E4,Grades,2)</f>
+        <f t="shared" ref="F4:G19" si="0">VLOOKUP(E4,Grades,2)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="5">
+        <f>VLOOKUP(E4,Grades,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
@@ -1399,15 +1505,19 @@
         <v>89</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E19" si="0">AVERAGE(B5:D5)</f>
+        <f t="shared" ref="E5:E19" si="1">AVERAGE(B5:D5)</f>
         <v>95</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>VLOOKUP(E5,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="5">
+        <f>VLOOKUP(E5,Grades,3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1421,15 +1531,19 @@
         <v>54</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.666666666666664</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>VLOOKUP(E6,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="5">
+        <f>VLOOKUP(E6,Grades,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1443,15 +1557,19 @@
         <v>95</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.666666666666671</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f>VLOOKUP(E7,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="5">
+        <f>VLOOKUP(E7,Grades,3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1465,15 +1583,19 @@
         <v>84</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f>VLOOKUP(E8,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="5">
+        <f>VLOOKUP(E8,Grades,3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -1487,15 +1609,19 @@
         <v>55</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.666666666666664</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f>VLOOKUP(E9,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="5">
+        <f>VLOOKUP(E9,Grades,3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
@@ -1509,15 +1635,19 @@
         <v>68</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.666666666666671</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f>VLOOKUP(E10,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="5">
+        <f>VLOOKUP(E10,Grades,3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1531,15 +1661,19 @@
         <v>67</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="F11" s="5" t="str">
-        <f>VLOOKUP(E11,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="5">
+        <f>VLOOKUP(E11,Grades,3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1553,15 +1687,19 @@
         <v>78</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.666666666666671</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f>VLOOKUP(E12,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A-</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="5">
+        <f>VLOOKUP(E12,Grades,3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
@@ -1575,15 +1713,19 @@
         <v>51</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="F13" s="5" t="str">
-        <f>VLOOKUP(E13,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="5">
+        <f>VLOOKUP(E13,Grades,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1597,15 +1739,19 @@
         <v>52</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f>VLOOKUP(E14,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="5">
+        <f>VLOOKUP(E14,Grades,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -1619,15 +1765,19 @@
         <v>69</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.666666666666671</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f>VLOOKUP(E15,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="5">
+        <f>VLOOKUP(E15,Grades,3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -1641,15 +1791,19 @@
         <v>49</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.333333333333336</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f>VLOOKUP(E16,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="5">
+        <f>VLOOKUP(E16,Grades,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
@@ -1663,15 +1817,19 @@
         <v>83</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.333333333333329</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f>VLOOKUP(E17,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="5">
+        <f>VLOOKUP(E17,Grades,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1685,15 +1843,19 @@
         <v>76</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86.333333333333329</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>VLOOKUP(E18,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="5">
+        <f>VLOOKUP(E18,Grades,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12">
         <f>AVERAGE(B4:B18)</f>
@@ -1707,13 +1869,17 @@
         <f>AVERAGE(D4:D18)</f>
         <v>70.266666666666666</v>
       </c>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
+      <c r="E19" s="21">
+        <f t="shared" si="1"/>
         <v>75.577777777777783</v>
       </c>
-      <c r="F19" s="5" t="str">
-        <f>VLOOKUP(E19,Grades,2)</f>
+      <c r="F19" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>B</v>
+      </c>
+      <c r="G19" s="23">
+        <f>VLOOKUP(E19,Grades,3)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1733,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,7 +1913,7 @@
     <col min="6" max="6" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
@@ -1757,7 +1923,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
@@ -1767,7 +1933,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1786,8 +1952,11 @@
       <c r="F3" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -1805,11 +1974,15 @@
         <v>60.666666666666664</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>VLOOKUP(E4,Grades,2)</f>
+        <f t="shared" ref="F4:F19" si="0">VLOOKUP(E4,Grades,2)</f>
         <v>C</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f>VLOOKUP(E4,Grades,3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
@@ -1823,15 +1996,19 @@
         <v>78</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E19" si="0">AVERAGE(B5:D5)</f>
+        <f t="shared" ref="E5:E19" si="1">AVERAGE(B5:D5)</f>
         <v>85.666666666666671</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>VLOOKUP(E5,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f>VLOOKUP(E5,Grades,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -1845,15 +2022,19 @@
         <v>82</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>VLOOKUP(E6,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f>VLOOKUP(E6,Grades,3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
@@ -1867,15 +2048,19 @@
         <v>55</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f>VLOOKUP(E7,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f>VLOOKUP(E7,Grades,3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -1889,15 +2074,19 @@
         <v>58</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.333333333333336</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f>VLOOKUP(E8,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f>VLOOKUP(E8,Grades,3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -1911,15 +2100,19 @@
         <v>71</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.666666666666671</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f>VLOOKUP(E9,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f>VLOOKUP(E9,Grades,3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -1933,15 +2126,19 @@
         <v>84</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.333333333333329</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f>VLOOKUP(E10,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f>VLOOKUP(E10,Grades,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -1955,15 +2152,19 @@
         <v>83</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.666666666666671</v>
       </c>
       <c r="F11" s="5" t="str">
-        <f>VLOOKUP(E11,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f>VLOOKUP(E11,Grades,3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
@@ -1977,15 +2178,19 @@
         <v>54</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.333333333333336</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f>VLOOKUP(E12,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f>VLOOKUP(E12,Grades,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -1999,15 +2204,19 @@
         <v>55</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="F13" s="5" t="str">
-        <f>VLOOKUP(E13,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f>VLOOKUP(E13,Grades,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
@@ -2021,15 +2230,19 @@
         <v>65</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.666666666666671</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f>VLOOKUP(E14,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B-</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f>VLOOKUP(E14,Grades,3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
@@ -2043,15 +2256,19 @@
         <v>83</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.666666666666671</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f>VLOOKUP(E15,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>VLOOKUP(E15,Grades,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
@@ -2065,15 +2282,19 @@
         <v>82</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.333333333333329</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f>VLOOKUP(E16,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f>VLOOKUP(E16,Grades,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
@@ -2087,15 +2308,19 @@
         <v>76</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f>VLOOKUP(E17,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>A-</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f>VLOOKUP(E17,Grades,3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -2109,15 +2334,19 @@
         <v>67</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.666666666666671</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>VLOOKUP(E18,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B-</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f>VLOOKUP(E18,Grades,3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12">
         <f>AVERAGE(B4:B18)</f>
@@ -2132,12 +2361,16 @@
         <v>69.8</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.600000000000009</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f>VLOOKUP(E19,Grades,2)</f>
+        <f t="shared" si="0"/>
         <v>B</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(E19,Grades,3)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
